--- a/biology/Botanique/Gigartinaceae/Gigartinaceae.xlsx
+++ b/biology/Botanique/Gigartinaceae/Gigartinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gigartinaceae sont une famille d’algues rouges de l’ordre des Gigartinales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (5 juillet 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (5 juillet 2014) :
 genre Chondracanthus Kützing
 genre Chondrus Stackhouse
 genre Gigartina Stackhouse
@@ -523,13 +537,13 @@
 genre Psilophycus W.A.Nelson, Leister &amp; Hommersand
 genre Rhodoglossum J.Agardh
 genre Sarcothalia Kützing
-Selon ITIS      (5 juillet 2014)[2] :
+Selon ITIS      (5 juillet 2014) :
 genre Besa Setchell, 1912
 genre Chondrus J. Stackhouse, 1797
 genre Gigartina Stackhouse, 1809
 genre Iridaea Bory De St. -vincent, 1826
 genre Rhodoglossum J. G. Agardh
-Selon NCBI  (5 juillet 2014)[3] :
+Selon NCBI  (5 juillet 2014) :
 genre Chondracanthus
 Chondracanthus acicularis
 Chondracanthus canaliculatus
@@ -624,7 +638,7 @@
 Sarcothalia papillosa
 Sarcothalia scutellata
 Sarcothalia stiriata
-Selon World Register of Marine Species                               (5 juillet 2014)[4] :
+Selon World Register of Marine Species                               (5 juillet 2014) :
 genre Chondracanthus Kützing, 1843
 genre Chondrus Stackhouse, 1797
 genre Gigartina Stackhouse, 1809
